--- a/dqe - avenant-2.xlsx
+++ b/dqe - avenant-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Cosider_Project_GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A8D03F-BEC9-4314-B1DC-19859236574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6484F1A7-B704-4CDE-8E02-E23FDE5292A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="2730" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>code_tache</t>
   </si>
@@ -76,19 +76,7 @@
     <t>Peinture vinylique ( coté interieure)</t>
   </si>
   <si>
-    <t>pole</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
     <t>num_avenant</t>
-  </si>
-  <si>
-    <t>G128</t>
-  </si>
-  <si>
-    <t>209P</t>
   </si>
   <si>
     <t>KDA</t>
@@ -505,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,7 +506,7 @@
     <col min="4" max="4" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,17 +522,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -555,22 +537,16 @@
         <v>950</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3">
         <v>7.2</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -581,22 +557,16 @@
         <v>8800</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3">
         <v>-11.59</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -607,22 +577,16 @@
         <v>31000</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -633,22 +597,16 @@
         <v>35500</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>0.22</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -659,22 +617,16 @@
         <v>35500</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <v>0.96</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -685,22 +637,16 @@
         <v>1320</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>-335.61</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -711,22 +657,16 @@
         <v>35500</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5">
         <v>-1.26</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -737,22 +677,16 @@
         <v>9800</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>-3.84</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -763,22 +697,16 @@
         <v>910</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>-47.6</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -789,22 +717,16 @@
         <v>580</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3">
         <v>-141.6</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -815,22 +737,16 @@
         <v>1750</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5">
         <v>-12.8</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>15</v>
       </c>
@@ -841,22 +757,16 @@
         <v>1400</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3">
         <v>80.69</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>16</v>
       </c>
@@ -867,25 +777,19 @@
         <v>210</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3">
         <v>-6534.84</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
